--- a/outputs/kmeans-descriptive/aggregate.xlsx
+++ b/outputs/kmeans-descriptive/aggregate.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -81,18 +81,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2006,6 +2006,6 @@
     <mergeCell ref="BP4:BR4"/>
     <mergeCell ref="BS4:BU4"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/outputs/kmeans-descriptive/aggregate.xlsx
+++ b/outputs/kmeans-descriptive/aggregate.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -81,18 +81,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2006,6 +2006,6 @@
     <mergeCell ref="BP4:BR4"/>
     <mergeCell ref="BS4:BU4"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/kmeans-descriptive/aggregate.xlsx
+++ b/outputs/kmeans-descriptive/aggregate.xlsx
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AQ7" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AT7" t="n">
         <v>255</v>
@@ -1435,13 +1435,13 @@
         <v>96</v>
       </c>
       <c r="AW7" t="n">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="AX7" t="n">
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>76</v>
+        <v>75.5</v>
       </c>
       <c r="AZ7" t="n">
         <v>255</v>
@@ -1450,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BC7" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BD7" t="n">
         <v>0</v>
@@ -1468,25 +1468,25 @@
         <v>0.1917208752217622</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.4924638246619958</v>
+        <v>0.4923741665533928</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.7971996797990597</v>
+        <v>0.792275890580858</v>
       </c>
       <c r="BJ7" t="n">
         <v>0.1267264845246497</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.3800195886385897</v>
+        <v>0.3794919648207364</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.8576273189176415</v>
+        <v>0.8130156118933797</v>
       </c>
       <c r="BM7" t="n">
         <v>0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.1616921241529301</v>
+        <v>0.1636675862711519</v>
       </c>
       <c r="BO7" t="n">
         <v>0.3815918678883275</v>
@@ -1495,16 +1495,16 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.1531954201457461</v>
+        <v>0.1566647428965612</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.4084038538883136</v>
+        <v>0.3786705113095653</v>
       </c>
       <c r="BS7" t="n">
         <v>4.528985507246377e-05</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.06068775633120142</v>
+        <v>0.06240352517572566</v>
       </c>
       <c r="BU7" t="n">
         <v>0.4788255223037832</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>10</v>
@@ -1547,13 +1547,13 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>6</v>
@@ -1571,10 +1571,10 @@
         <v>10</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V8" t="n">
         <v>10</v>
@@ -1583,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1598,7 +1598,7 @@
         <v>10</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1619,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>10</v>
@@ -1628,109 +1628,109 @@
         <v>1</v>
       </c>
       <c r="AM8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN8" t="n">
         <v>10</v>
       </c>
       <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>111</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>171</v>
+      </c>
+      <c r="AR8" t="n">
         <v>7</v>
       </c>
-      <c r="AP8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="AS8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>206</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>43</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>224</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>71</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>195</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB8" t="n">
         <v>121</v>
       </c>
-      <c r="AR8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>91</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>142</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>87</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>132</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>204</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>72</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>186</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>26</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>125</v>
-      </c>
       <c r="BC8" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BD8" t="n">
         <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BF8" t="n">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.2971202980704722</v>
+        <v>0.2431331271123332</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.4750289094045609</v>
+        <v>0.4866983734881781</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.6436457022313037</v>
+        <v>0.6440012630324337</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.2521664153312215</v>
+        <v>0.2422707206184887</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.4816744520301833</v>
+        <v>0.4110188152969098</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.7930299494360175</v>
+        <v>0.760374744342548</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0183147377542188</v>
+        <v>0.01001946183559667</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.2540160981830425</v>
+        <v>0.2152693621383455</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.3621832297737324</v>
+        <v>0.3575142136658729</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.02383851167434846</v>
+        <v>0.02403318448967668</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.2293859161181213</v>
+        <v>0.1783599280155433</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.371993319670845</v>
+        <v>0.3623460823462856</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.002197802197802198</v>
+        <v>0.002873012832790653</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.09444740281744687</v>
+        <v>0.06817097605190345</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.3924858223062382</v>
+        <v>0.3319775596072931</v>
       </c>
     </row>
     <row r="9">
@@ -1776,52 +1776,52 @@
         <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>10</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="n">
         <v>9</v>
       </c>
-      <c r="P9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
         <v>5</v>
       </c>
-      <c r="S9" t="n">
-        <v>10</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>10</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>6</v>
-      </c>
       <c r="AB9" t="n">
         <v>10</v>
       </c>
       <c r="AC9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="n">
         <v>8</v>
@@ -1830,10 +1830,10 @@
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
         <v>10</v>
@@ -1863,97 +1863,97 @@
         <v>111</v>
       </c>
       <c r="AQ9" t="n">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS9" t="n">
         <v>54</v>
       </c>
       <c r="AT9" t="n">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AU9" t="n">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="AV9" t="n">
-        <v>173.5</v>
+        <v>168</v>
       </c>
       <c r="AW9" t="n">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="AX9" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AZ9" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="BA9" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="BB9" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BC9" t="n">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="BD9" t="n">
         <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="BF9" t="n">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.2926452366370901</v>
+        <v>0.2855836114350042</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.4716005963708375</v>
+        <v>0.4776131197979734</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.7314275151930459</v>
+        <v>0.7971996797990597</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.2781909373919059</v>
+        <v>0.2244793776157688</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.4869602453773775</v>
+        <v>0.4877667984189723</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.8265421102335169</v>
+        <v>0.8576273189176415</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.007876321702510104</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.1859438422254086</v>
+        <v>0.1812784857191828</v>
       </c>
       <c r="BO9" t="n">
         <v>0.3799202326208149</v>
       </c>
       <c r="BP9" t="n">
-        <v>0</v>
+        <v>0.009974597124807026</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.1626646947964439</v>
+        <v>0.1446111831889948</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.3927689016038371</v>
+        <v>0.4084038538883136</v>
       </c>
       <c r="BS9" t="n">
-        <v>5.947071067499257e-05</v>
+        <v>0.0008960573476702509</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.06926673148846588</v>
+        <v>0.06143162393162393</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.417966903073286</v>
+        <v>0.3924858223062382</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/kmeans-descriptive/aggregate.xlsx
+++ b/outputs/kmeans-descriptive/aggregate.xlsx
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>10</v>
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>10</v>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
@@ -1414,100 +1414,100 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="AQ7" t="n">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AT7" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AU7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="AW7" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AX7" t="n">
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>75.5</v>
+        <v>52.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="BA7" t="n">
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="BC7" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="BD7" t="n">
         <v>0</v>
       </c>
       <c r="BE7" t="n">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="BF7" t="n">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.1917208752217622</v>
+        <v>0.2199918496694308</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.4923741665533928</v>
+        <v>0.4840675790259474</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.792275890580858</v>
+        <v>0.7584608065647381</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.1267264845246497</v>
+        <v>0.1595579165732227</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.3794919648207364</v>
+        <v>0.3620032855624651</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.8130156118933797</v>
+        <v>0.8168302750401147</v>
       </c>
       <c r="BM7" t="n">
         <v>0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.1636675862711519</v>
+        <v>0.1297171271880406</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.3815918678883275</v>
+        <v>0.3715187419335101</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.1566647428965612</v>
+        <v>0.1393776221114097</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.3786705113095653</v>
+        <v>0.3857636096137051</v>
       </c>
       <c r="BS7" t="n">
         <v>4.528985507246377e-05</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.06240352517572566</v>
+        <v>0.056342058562631</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.4788255223037832</v>
+        <v>0.5379227053140097</v>
       </c>
     </row>
     <row r="8">
@@ -1550,7 +1550,7 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
         <v>3</v>
@@ -1565,16 +1565,16 @@
         <v>1</v>
       </c>
       <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
         <v>6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>10</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2</v>
-      </c>
-      <c r="U8" t="n">
-        <v>7</v>
       </c>
       <c r="V8" t="n">
         <v>10</v>
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>10</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1622,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL8" t="n">
         <v>1</v>
@@ -1631,106 +1631,106 @@
         <v>5</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AP8" t="n">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="AQ8" t="n">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="AR8" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AT8" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="AU8" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="AV8" t="n">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="AW8" t="n">
         <v>224</v>
       </c>
       <c r="AX8" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="BA8" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="BB8" t="n">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="BC8" t="n">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="BE8" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="BF8" t="n">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.2431331271123332</v>
+        <v>0.3674393175967152</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.4866983734881781</v>
+        <v>0.5081554580896692</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.6440012630324337</v>
+        <v>0.6702758497203591</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.2422707206184887</v>
+        <v>0.266748786860769</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.4110188152969098</v>
+        <v>0.4241891200148915</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.760374744342548</v>
+        <v>0.8362416904083571</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.01001946183559667</v>
+        <v>0.008546429221175591</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.2152693621383455</v>
+        <v>0.2361582005224207</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.3575142136658729</v>
+        <v>0.3353329333524587</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.02403318448967668</v>
+        <v>0.02056887902668939</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.1783599280155433</v>
+        <v>0.1614934391458424</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.3623460823462856</v>
+        <v>0.3300403890540208</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.002873012832790653</v>
+        <v>0.001008064516129032</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.06817097605190345</v>
+        <v>0.08737958077165126</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.3319775596072931</v>
+        <v>0.3682476943346509</v>
       </c>
     </row>
     <row r="9">
@@ -1758,19 +1758,19 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
         <v>10</v>
@@ -1788,44 +1788,44 @@
         <v>1</v>
       </c>
       <c r="R9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>10</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
         <v>6</v>
       </c>
-      <c r="S9" t="n">
-        <v>10</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="AB9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
         <v>7</v>
       </c>
-      <c r="V9" t="n">
-        <v>10</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8</v>
-      </c>
       <c r="AE9" t="n">
         <v>10</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH9" t="n">
         <v>10</v>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK9" t="n">
         <v>10</v>
@@ -1851,109 +1851,109 @@
         <v>1</v>
       </c>
       <c r="AM9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN9" t="n">
         <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AP9" t="n">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="AQ9" t="n">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AS9" t="n">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="AT9" t="n">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="AU9" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="AV9" t="n">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="AW9" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="AX9" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="AZ9" t="n">
+        <v>254</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>88</v>
+      </c>
+      <c r="BC9" t="n">
         <v>255</v>
       </c>
-      <c r="BA9" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>254</v>
-      </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BE9" t="n">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="BF9" t="n">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.2855836114350042</v>
+        <v>0.2767811898246681</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.4776131197979734</v>
+        <v>0.4856298763940123</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.7971996797990597</v>
+        <v>0.7780041535708658</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.2244793776157688</v>
+        <v>0.2414814814814815</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.4877667984189723</v>
+        <v>0.4562394127611517</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.8576273189176415</v>
+        <v>0.8539388543338676</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.007876321702510104</v>
+        <v>0.00206756368767997</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.1812784857191828</v>
+        <v>0.182918138489462</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.3799202326208149</v>
+        <v>0.35608683236975</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.009974597124807026</v>
+        <v>0.005068865814957325</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.1446111831889948</v>
+        <v>0.1529829903340158</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.4084038538883136</v>
+        <v>0.3487574031177041</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.0008960573476702509</v>
+        <v>0.000139366347672582</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.06143162393162393</v>
+        <v>0.04840579710144927</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.3924858223062382</v>
+        <v>0.4774866569626395</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/kmeans-descriptive/aggregate.xlsx
+++ b/outputs/kmeans-descriptive/aggregate.xlsx
@@ -1315,142 +1315,142 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="W7" t="n">
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
         <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>1</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
         <v>1</v>
       </c>
       <c r="AM7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AQ7" t="n">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AT7" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="AW7" t="n">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AX7" t="n">
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>52.5</v>
+        <v>65</v>
       </c>
       <c r="AZ7" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BA7" t="n">
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="BC7" t="n">
         <v>230</v>
@@ -1459,55 +1459,55 @@
         <v>0</v>
       </c>
       <c r="BE7" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="BF7" t="n">
         <v>228</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.2199918496694308</v>
+        <v>0.2431951060327109</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.4840675790259474</v>
+        <v>0.5016769669062087</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.7584608065647381</v>
+        <v>1</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.1595579165732227</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.3620032855624651</v>
+        <v>0.406294602583436</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.8168302750401147</v>
+        <v>0.9929078014184397</v>
       </c>
       <c r="BM7" t="n">
         <v>0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.1297171271880406</v>
+        <v>0.1497718489638923</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.3715187419335101</v>
+        <v>0.3938661711008237</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.1393776221114097</v>
+        <v>0.1542546444780535</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.3857636096137051</v>
+        <v>0.4435346124233666</v>
       </c>
       <c r="BS7" t="n">
-        <v>4.528985507246377e-05</v>
+        <v>4.585473220836391e-05</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.056342058562631</v>
+        <v>0.04866770861981455</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.5379227053140097</v>
+        <v>0.5152027027027027</v>
       </c>
     </row>
     <row r="8">
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
         <v>10</v>
@@ -1553,184 +1553,184 @@
         <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P8" t="n">
         <v>10</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>5</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL8" t="n">
         <v>2</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AM8" t="n">
         <v>6</v>
       </c>
-      <c r="AE8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AN8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO8" t="n">
         <v>6</v>
       </c>
-      <c r="AH8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>41</v>
-      </c>
       <c r="AP8" t="n">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="AQ8" t="n">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="AR8" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="AS8" t="n">
-        <v>103</v>
+        <v>75.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="AU8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV8" t="n">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="AW8" t="n">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AZ8" t="n">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="BA8" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>75</v>
+        <v>44.5</v>
       </c>
       <c r="BC8" t="n">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="BD8" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>86</v>
+        <v>34.5</v>
       </c>
       <c r="BF8" t="n">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.3674393175967152</v>
+        <v>0.4654117848285294</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.5081554580896692</v>
+        <v>0.5443347513181849</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.6702758497203591</v>
+        <v>0.9870761866773036</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.266748786860769</v>
+        <v>0.303225806451613</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.4241891200148915</v>
+        <v>0.4294966012707016</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.8362416904083571</v>
+        <v>0.7254102644507164</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.008546429221175591</v>
+        <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.2361582005224207</v>
+        <v>0.1578496260175382</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.3353329333524587</v>
+        <v>0.3441590921303435</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.02056887902668939</v>
+        <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.1614934391458424</v>
+        <v>0.2107149380697658</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.3300403890540208</v>
+        <v>0.3409516951580344</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.001008064516129032</v>
+        <v>2.858286171611502e-05</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.08737958077165126</v>
+        <v>0.04341140999265811</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.3682476943346509</v>
+        <v>0.3021972884525479</v>
       </c>
     </row>
     <row r="9">
@@ -1758,28 +1758,28 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P9" t="n">
         <v>10</v>
@@ -1788,28 +1788,28 @@
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
         <v>1</v>
@@ -1818,16 +1818,16 @@
         <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
         <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>6</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>1</v>
@@ -1854,106 +1854,106 @@
         <v>6</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AP9" t="n">
-        <v>174</v>
+        <v>115.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="AR9" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="AT9" t="n">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="AU9" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>130</v>
+        <v>70.5</v>
       </c>
       <c r="AW9" t="n">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AZ9" t="n">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="BA9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="BC9" t="n">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="BD9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="BF9" t="n">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.2767811898246681</v>
+        <v>0.2629369803476946</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.4856298763940123</v>
+        <v>0.5079363171785225</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.7780041535708658</v>
+        <v>1</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.2414814814814815</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.4562394127611517</v>
+        <v>0.4255890480611942</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.8539388543338676</v>
+        <v>0.885304659498208</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.00206756368767997</v>
+        <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.182918138489462</v>
+        <v>0.152633952419462</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.35608683236975</v>
+        <v>0.3668940743409324</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.005068865814957325</v>
+        <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.1529829903340158</v>
+        <v>0.1675755632780588</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.3487574031177041</v>
+        <v>0.3851287578467805</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.000139366347672582</v>
+        <v>4.625346901017576e-05</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.04840579710144927</v>
+        <v>0.05646631042973063</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.4774866569626395</v>
+        <v>0.5655471289274107</v>
       </c>
     </row>
   </sheetData>
